--- a/data/Table_1.3_Primary_Energy_Consumption_by_Source.xlsx
+++ b/data/Table_1.3_Primary_Energy_Consumption_by_Source.xlsx
@@ -21,13 +21,13 @@
     <t>U.S. Energy Information Administration</t>
   </si>
   <si>
-    <t>July 2020 Monthly Energy Review</t>
+    <t>August 2020 Monthly Energy Review</t>
   </si>
   <si>
-    <t>Release Date: July 28, 2020</t>
+    <t>Release Date: August 26, 2020</t>
   </si>
   <si>
-    <t>Next Update: August 26, 2020</t>
+    <t>Next Update: September 24, 2020</t>
   </si>
   <si>
     <t>Table 1.3 Primary Energy Consumption by Source</t>
@@ -485,7 +485,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M580"/>
+  <dimension ref="A1:M581"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A13" sqref="A13"/>
@@ -23634,7 +23634,7 @@
         <v>3.17567</v>
       </c>
       <c r="E574">
-        <v>6.379894</v>
+        <v>6.379895</v>
       </c>
       <c r="F574">
         <v>0.648551</v>
@@ -23658,7 +23658,7 @@
         <v>0.922997</v>
       </c>
       <c r="M574">
-        <v>7.958936</v>
+        <v>7.958937</v>
       </c>
     </row>
     <row r="575" spans="1:13">
@@ -23781,7 +23781,7 @@
         <v>0.972738</v>
       </c>
       <c r="M577">
-        <v>8.951658</v>
+        <v>8.951407</v>
       </c>
     </row>
     <row r="578" spans="1:13">
@@ -23792,13 +23792,13 @@
         <v>0.691422</v>
       </c>
       <c r="C578">
-        <v>3.140893</v>
+        <v>3.140896</v>
       </c>
       <c r="D578">
         <v>2.804605</v>
       </c>
       <c r="E578">
-        <v>6.635205</v>
+        <v>6.635208</v>
       </c>
       <c r="F578">
         <v>0.689511</v>
@@ -23822,7 +23822,7 @@
         <v>0.971421</v>
       </c>
       <c r="M578">
-        <v>8.308592</v>
+        <v>8.3058</v>
       </c>
     </row>
     <row r="579" spans="1:13">
@@ -23833,13 +23833,13 @@
         <v>0.630496</v>
       </c>
       <c r="C579">
-        <v>2.802496</v>
+        <v>2.802653</v>
       </c>
       <c r="D579">
         <v>2.761116</v>
       </c>
       <c r="E579">
-        <v>6.192781</v>
+        <v>6.192939</v>
       </c>
       <c r="F579">
         <v>0.669091</v>
@@ -23863,7 +23863,7 @@
         <v>0.963428</v>
       </c>
       <c r="M579">
-        <v>7.836892</v>
+        <v>7.838347</v>
       </c>
     </row>
     <row r="580" spans="1:13">
@@ -23874,13 +23874,13 @@
         <v>0.528397</v>
       </c>
       <c r="C580">
-        <v>2.324446</v>
+        <v>2.324703</v>
       </c>
       <c r="D580">
         <v>2.139891</v>
       </c>
       <c r="E580">
-        <v>4.991381</v>
+        <v>4.991638</v>
       </c>
       <c r="F580">
         <v>0.618623</v>
@@ -23904,7 +23904,48 @@
         <v>0.910188</v>
       </c>
       <c r="M580">
-        <v>6.532082</v>
+        <v>6.531408</v>
+      </c>
+    </row>
+    <row r="581" spans="1:13">
+      <c r="A581" s="6">
+        <v>43952</v>
+      </c>
+      <c r="B581">
+        <v>0.585818</v>
+      </c>
+      <c r="C581">
+        <v>2.141858</v>
+      </c>
+      <c r="D581">
+        <v>2.416329</v>
+      </c>
+      <c r="E581">
+        <v>5.143559</v>
+      </c>
+      <c r="F581">
+        <v>0.672653</v>
+      </c>
+      <c r="G581">
+        <v>0.268273</v>
+      </c>
+      <c r="H581">
+        <v>0.017959</v>
+      </c>
+      <c r="I581">
+        <v>0.134061</v>
+      </c>
+      <c r="J581">
+        <v>0.256554</v>
+      </c>
+      <c r="K581">
+        <v>0.364299</v>
+      </c>
+      <c r="L581">
+        <v>1.041145</v>
+      </c>
+      <c r="M581">
+        <v>6.869847</v>
       </c>
     </row>
   </sheetData>
@@ -26973,7 +27014,7 @@
         <v>11.460497</v>
       </c>
       <c r="M83">
-        <v>100.16586</v>
+        <v>100.165861</v>
       </c>
     </row>
   </sheetData>
